--- a/1 기능 정의/project04 - 요구사항 정의서 - 서희.xlsx
+++ b/1 기능 정의/project04 - 요구사항 정의서 - 서희.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddn\Desktop\RentalEquip\1 기능 정의\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1215E6-34ED-4C89-9305-E02C90B22AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -291,15 +297,213 @@
     <t>형준</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>내상점관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1채팅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저간 1:1 채팅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡, 페이스북, 구글 소셜 로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 답변, 방문자수, 팔로잉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지, 제목, 거래방법(택배, 직거래), 직거래시 거래지역, 가격, 설명, 수량</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 문의 댓글 및 판매자 답변, 방문자 수, 상품 목록, 팔로잉, 팔로워
+- 문의 댓글이 달리거나 팔로워가 생겼을때 알림</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 판매유저와 구매유저간 1:1 채팅 기능
+- 채팅 요청시 알림</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 생활용품 (ex. 공구세트, 텐트, 스키, 아동용 장난감 또는 책 등)
+- 집 대여
+- 식품 (ex. 외할머니한테 받은 감자 한박스 등)
+- 재능 (ex. 컴퓨터 프로그램 설치해주세요, 옷쇼핑 같이 가주세요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편결제(토스. 카카오페이, 페이코)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보(실명, 휴대폰 번호), 가입시 사용하는 소셜로그인 수단, 활동정지 기능, 상품목록, 결제 내역</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너, 광고, 팝업관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 추가/제거/수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 클릭시 상품목록 노출</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 올리기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편결제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 직접 판매 상품 정보 기입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 리스트, 관리 기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관리자 로그인시 사용자 페이지에서 게시글 삭제/수정 가능
+- 삭제시 삭제 일시와 관리자 아이디를 관리자 페이지에 기록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 유저 알림</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 유저에게 경고, 수정 요청</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 유저에게 부당행위에대한 경고, 게시글 수정 요청등 알림 보내기 기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 제거시 글 목록 보관, 이동 기능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 광고, 상품 홍보 배너, 공지 및 이벤트 팝업</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 리스트, 글 작성, 글 삭제 및 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 리스트, 글 작성, 글 삭제 및 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 순서변경 및 최상단 노출 가능토록하는 체크박스, 글작성-수정-삭제, 
+공지사항 작성자 아이디(유저페이지에는 노출되지 않음)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 순서변경 및 최상단 노출 가능토록하는 체크박스, 글작성-수정-삭제, 
+FAQ 작성자 아이디(유저페이지에는 노출되지 않음)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 상품페이지로 이동</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 리스트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 접속 가능 아이디 목록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 권한을 가진 관리자에게만 노출되는 탭
+관리자 권한 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근본상품, 찜한상품, 상품 이미지 소개글
+배너, 광고, 팝업</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -405,6 +609,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -432,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -742,19 +953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -791,11 +989,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -866,9 +1101,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,17 +1134,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,16 +1146,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,9 +1164,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,40 +1179,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,42 +1212,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,19 +1543,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="84" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
+    <col min="4" max="4" width="87.5703125" style="94" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
@@ -1295,7 +1572,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1328,22 +1605,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1365,20 +1642,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1402,7 +1679,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1441,7 +1718,7 @@
       <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1476,7 +1753,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1508,44 +1785,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="64" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1567,32 +1844,32 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="24">
         <v>43854</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>43858</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>43859</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>43860</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>43861</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1612,21 +1889,27 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="38"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="5">
         <v>1</v>
       </c>
@@ -1655,19 +1938,25 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>66</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="38"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="5">
         <v>1</v>
       </c>
@@ -1696,18 +1985,24 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="29"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8">
         <v>2</v>
@@ -1737,19 +2032,25 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="40"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="8">
         <v>1</v>
       </c>
@@ -1778,19 +2079,25 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="40"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="8"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1813,18 +2120,24 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="29"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8">
         <v>2</v>
@@ -1853,19 +2166,25 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="39"/>
+    <row r="15" spans="1:33" ht="58.5" customHeight="1">
+      <c r="A15" s="69"/>
+      <c r="B15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="29"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="13"/>
       <c r="N15" s="8">
         <v>1</v>
@@ -1895,18 +2214,24 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="29"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8">
         <v>1</v>
@@ -1936,18 +2261,18 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="81"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="29"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8">
         <v>2</v>
@@ -1977,18 +2302,18 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="65"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="81"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8">
         <v>1</v>
@@ -2018,18 +2343,18 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="81"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8">
         <v>2</v>
@@ -2059,18 +2384,18 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="81"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8">
         <v>2</v>
@@ -2100,19 +2425,19 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="81"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="55"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="16"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="8">
         <v>1</v>
       </c>
@@ -2141,18 +2466,18 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="82"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="29"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8">
         <v>3</v>
@@ -2178,18 +2503,18 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="82"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="30"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="13"/>
       <c r="N23" s="8">
         <v>1</v>
@@ -2219,18 +2544,18 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="33" customHeight="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="82"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="44"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="11"/>
       <c r="F24" s="15"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="30"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
         <v>2</v>
@@ -2260,18 +2585,18 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="33" customHeight="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="82"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="30"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="13"/>
       <c r="N25" s="8">
         <v>1</v>
@@ -2301,19 +2626,19 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="32"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="8">
         <v>2</v>
       </c>
@@ -2342,21 +2667,27 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="8">
         <v>3</v>
       </c>
@@ -2383,19 +2714,25 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="44"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="88" t="s">
+        <v>94</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="41"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="8">
         <v>3</v>
       </c>
@@ -2422,19 +2759,25 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="51"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>93</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="41"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="8">
         <v>3</v>
       </c>
@@ -2461,19 +2804,25 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="41"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>89</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="41"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="8">
         <v>3</v>
       </c>
@@ -2500,19 +2849,25 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="8">
         <v>3</v>
       </c>
@@ -2537,10 +2892,16 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>99</v>
+      </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -2572,10 +2933,16 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="98" t="s">
+        <v>100</v>
+      </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -2607,17 +2974,23 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="14"/>
@@ -2642,18 +3015,18 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
       <c r="M35" s="22"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
@@ -2677,18 +3050,18 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
       <c r="M36" s="21"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2712,18 +3085,18 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="33" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="21"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2808,7 +3181,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2840,7 +3213,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2875,7 +3248,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="85"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2908,7 +3281,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2945,7 +3318,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2982,7 +3355,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3019,7 +3392,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3056,7 +3429,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3093,7 +3466,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3128,7 +3501,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3163,7 +3536,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3198,7 +3571,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3233,7 +3606,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="85"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3268,7 +3641,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3303,7 +3676,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3338,7 +3711,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3373,7 +3746,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3408,7 +3781,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3443,7 +3816,7 @@
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3478,7 +3851,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3513,7 +3886,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3548,7 +3921,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3583,7 +3956,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="85"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3618,7 +3991,7 @@
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3653,7 +4026,7 @@
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3688,7 +4061,7 @@
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="85"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3723,7 +4096,7 @@
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3758,7 +4131,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3793,7 +4166,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="85"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3828,7 +4201,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="85"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3863,7 +4236,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="85"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3898,7 +4271,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="85"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3933,7 +4306,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3968,7 +4341,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4003,7 +4376,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="85"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4038,7 +4411,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4073,7 +4446,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="85"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4108,7 +4481,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="85"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4143,7 +4516,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4178,7 +4551,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="85"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4213,7 +4586,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="85"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4248,7 +4621,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="85"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4283,7 +4656,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4318,7 +4691,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4353,7 +4726,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="85"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -4388,7 +4761,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="85"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4423,7 +4796,7 @@
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="85"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4458,7 +4831,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="85"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4493,7 +4866,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4528,7 +4901,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="85"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4563,7 +4936,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="85"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4598,7 +4971,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="85"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -4633,7 +5006,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="85"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -4668,7 +5041,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="85"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4703,7 +5076,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="85"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4738,7 +5111,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="85"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -4773,7 +5146,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="85"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -4808,7 +5181,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="85"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -4843,7 +5216,7 @@
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="85"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -4878,7 +5251,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="85"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4913,7 +5286,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="85"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -4948,7 +5321,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="85"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -4983,7 +5356,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="85"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -5018,7 +5391,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="85"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5053,7 +5426,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="85"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -5088,7 +5461,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="85"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5123,7 +5496,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="85"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5158,7 +5531,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="85"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -5193,7 +5566,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="85"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -5228,7 +5601,7 @@
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="85"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -5263,7 +5636,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="85"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5298,7 +5671,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="85"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -5333,7 +5706,7 @@
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="85"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5368,7 +5741,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="85"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -5403,7 +5776,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="85"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -5438,7 +5811,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="85"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -5473,7 +5846,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="D116" s="85"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -5508,7 +5881,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="85"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5543,7 +5916,7 @@
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="85"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -5578,7 +5951,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="85"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -5613,7 +5986,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="85"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -5648,7 +6021,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="85"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -5683,7 +6056,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="85"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -5718,7 +6091,7 @@
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="85"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -5753,7 +6126,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="85"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -5788,7 +6161,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="85"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -5823,7 +6196,7 @@
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="85"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -5858,7 +6231,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="85"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -5893,7 +6266,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="85"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -5928,7 +6301,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="85"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -5963,7 +6336,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="85"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -5998,7 +6371,7 @@
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="85"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -6033,7 +6406,7 @@
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="85"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -6068,7 +6441,7 @@
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="85"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -6103,7 +6476,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="85"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -6138,7 +6511,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="85"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -6173,7 +6546,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="85"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6208,7 +6581,7 @@
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="85"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -6243,7 +6616,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="85"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -6278,7 +6651,7 @@
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="85"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -6313,7 +6686,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="85"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -6348,7 +6721,7 @@
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="85"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -6383,7 +6756,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="85"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -6418,7 +6791,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="85"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -6453,7 +6826,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="85"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -6488,7 +6861,7 @@
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="85"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -6523,7 +6896,7 @@
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="85"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -6558,7 +6931,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="85"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -6593,7 +6966,7 @@
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="85"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -6628,7 +7001,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="85"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -6663,7 +7036,7 @@
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="85"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -6698,7 +7071,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="85"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -6733,7 +7106,7 @@
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="85"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -6768,7 +7141,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="85"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -6803,7 +7176,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="85"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -6838,7 +7211,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="85"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -6873,7 +7246,7 @@
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="85"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -6908,7 +7281,7 @@
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="85"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -6943,7 +7316,7 @@
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="85"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -6978,7 +7351,7 @@
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="85"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -7013,7 +7386,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="85"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -7048,7 +7421,7 @@
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="85"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -7083,7 +7456,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="85"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -7118,7 +7491,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="85"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -7153,7 +7526,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="D164" s="85"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -7188,7 +7561,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="85"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -7223,7 +7596,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="85"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -7258,7 +7631,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="85"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -7293,7 +7666,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="85"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -7328,7 +7701,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="85"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -7363,7 +7736,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="85"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -7398,7 +7771,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="85"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -7433,7 +7806,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="85"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -7468,7 +7841,7 @@
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="85"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -7503,7 +7876,7 @@
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="85"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -7538,7 +7911,7 @@
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="85"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -7573,7 +7946,7 @@
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="85"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -7608,7 +7981,7 @@
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="85"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -7643,7 +8016,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="85"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -7678,7 +8051,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="85"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -7713,7 +8086,7 @@
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="85"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -7748,7 +8121,7 @@
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="85"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -7783,7 +8156,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="85"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -7818,7 +8191,7 @@
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="85"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -7853,7 +8226,7 @@
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="85"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -7888,7 +8261,7 @@
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="85"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -7923,7 +8296,7 @@
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="85"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -7958,7 +8331,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="D187" s="85"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -7993,7 +8366,7 @@
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="D188" s="85"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -8028,7 +8401,7 @@
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="85"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -8063,7 +8436,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="85"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -8098,7 +8471,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="85"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -8133,7 +8506,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="D192" s="85"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -8168,7 +8541,7 @@
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="D193" s="85"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -8203,7 +8576,7 @@
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="D194" s="85"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -8238,7 +8611,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="D195" s="85"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -8273,7 +8646,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="D196" s="85"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -8308,7 +8681,7 @@
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="85"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -8343,7 +8716,7 @@
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="D198" s="85"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -8378,7 +8751,7 @@
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="D199" s="85"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -8413,7 +8786,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="D200" s="85"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -8448,7 +8821,7 @@
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="D201" s="85"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -8483,7 +8856,7 @@
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="85"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -8518,7 +8891,7 @@
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="85"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -8553,7 +8926,7 @@
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="D204" s="85"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -8588,7 +8961,7 @@
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="85"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -8623,7 +8996,7 @@
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="85"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8658,7 +9031,7 @@
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
+      <c r="D207" s="85"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -8693,7 +9066,7 @@
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="85"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -8728,7 +9101,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="85"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -8763,7 +9136,7 @@
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
+      <c r="D210" s="85"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -8798,7 +9171,7 @@
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
+      <c r="D211" s="85"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -8833,7 +9206,7 @@
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="85"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -8868,7 +9241,7 @@
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="D213" s="85"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -8903,7 +9276,7 @@
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="D214" s="85"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -8938,7 +9311,7 @@
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="85"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -8973,7 +9346,7 @@
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
+      <c r="D216" s="85"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -9008,7 +9381,7 @@
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="D217" s="85"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -9043,7 +9416,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="D218" s="85"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -9078,7 +9451,7 @@
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
+      <c r="D219" s="85"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -9113,7 +9486,7 @@
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="D220" s="85"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -9148,7 +9521,7 @@
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="D221" s="85"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -9183,7 +9556,7 @@
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="D222" s="85"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -9218,7 +9591,7 @@
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
+      <c r="D223" s="85"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -9253,7 +9626,7 @@
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="D224" s="85"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -9288,7 +9661,7 @@
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
+      <c r="D225" s="85"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -9323,7 +9696,7 @@
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="D226" s="85"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -9358,7 +9731,7 @@
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="85"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -9393,7 +9766,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="D228" s="85"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -9428,7 +9801,7 @@
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
+      <c r="D229" s="85"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -9463,7 +9836,7 @@
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="D230" s="85"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9498,7 +9871,7 @@
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="D231" s="85"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -9533,7 +9906,7 @@
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="D232" s="85"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -9568,7 +9941,7 @@
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+      <c r="D233" s="85"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -9603,7 +9976,7 @@
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
+      <c r="D234" s="85"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -9638,7 +10011,7 @@
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="D235" s="85"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -9673,7 +10046,7 @@
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="D236" s="85"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -9708,7 +10081,7 @@
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="D237" s="85"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -9743,7 +10116,7 @@
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="D238" s="85"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -9778,7 +10151,7 @@
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="D239" s="85"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -10571,12 +10944,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P31">
+  <autoFilter ref="A7:P31" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="15">
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:M8"/>
@@ -10584,15 +10965,6 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="A9:A26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10601,7 +10973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
